--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vibar\source\repos\Grading_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E64727-5AAC-4DAC-9619-9498C22EFE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30DEF2-6C8D-4045-B7BE-34A5DEF26321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5556E41F-37F1-4019-B9F4-E20A2B8CE86F}"/>
   </bookViews>
@@ -567,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618455EF-5A7C-4D04-83D3-6F8BF5710847}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J1" sqref="J1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
     <col min="8" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +607,12 @@
         <v>1</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="str">
+        <f>A1 &amp; ", " &amp; B1 &amp; " " &amp; C1</f>
+        <v>Duran, Josefina Mira</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -635,8 +639,12 @@
         <v>1</v>
       </c>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J20" si="0">A2 &amp; ", " &amp; B2 &amp; " " &amp; C2</f>
+        <v>Agassi, Carlos Cid</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -650,7 +658,7 @@
         <v>48</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E20" si="0">E2+1</f>
+        <f t="shared" ref="E3:E20" si="1">E2+1</f>
         <v>10003</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -663,8 +671,12 @@
         <v>1</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>Lazaro, Fatima Ica</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -678,7 +690,7 @@
         <v>47</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10004</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -691,8 +703,12 @@
         <v>1</v>
       </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Morales, Roldan Pilma</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -706,7 +722,7 @@
         <v>47</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10005</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -718,8 +734,12 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Gomez, Richard Tila</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -733,7 +753,7 @@
         <v>47</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10006</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -745,8 +765,12 @@
       <c r="H6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Wilkins, Joey Coleman</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -760,7 +784,7 @@
         <v>48</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10007</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -772,8 +796,12 @@
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Vinson, Arwen Bora</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -787,7 +815,7 @@
         <v>47</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10008</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -799,8 +827,12 @@
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Mejia, Anish Hop</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -814,7 +846,7 @@
         <v>47</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10009</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -826,8 +858,12 @@
       <c r="H9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Mohring, Blayne Mira</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -841,7 +877,7 @@
         <v>48</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10010</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -853,8 +889,12 @@
       <c r="H10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Hurn, Dennet Cid</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -868,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10011</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -880,8 +920,12 @@
       <c r="H11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>Carcass, Berty Ica</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -895,7 +939,7 @@
         <v>47</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10012</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -907,8 +951,12 @@
       <c r="H12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>Bramhill, Daryl Pilma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -922,7 +970,7 @@
         <v>48</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10013</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -934,8 +982,12 @@
       <c r="H13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>Iredell, Wilt Tila</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -949,7 +1001,7 @@
         <v>48</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10014</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -961,8 +1013,12 @@
       <c r="H14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>Flips, Rowena Coleman</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -976,7 +1032,7 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10015</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -988,8 +1044,12 @@
       <c r="H15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>China, Traci Bora</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1003,7 +1063,7 @@
         <v>47</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10016</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1015,8 +1075,12 @@
       <c r="H16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>Gatherer, Nadean Hop</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1030,7 +1094,7 @@
         <v>48</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10017</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1042,8 +1106,12 @@
       <c r="H17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>Bottinelli, Hynda Mira</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1057,7 +1125,7 @@
         <v>48</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10018</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1069,8 +1137,12 @@
       <c r="H18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>Brunesco, Carmine Cid</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1084,7 +1156,7 @@
         <v>47</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10019</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1096,8 +1168,12 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>Gallaher, Wallie Ica</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1111,7 +1187,7 @@
         <v>47</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10020</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1122,6 +1198,10 @@
       </c>
       <c r="H20">
         <v>4</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>Membry, Coleman Pilma</v>
       </c>
     </row>
   </sheetData>
